--- a/MAPPING/3. mapping.xlsx
+++ b/MAPPING/3. mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaiyaphonp\งาน\port\MAPPING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EA9EB2-B19F-4E7E-A19F-691FFFB79F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B78B0-7B61-4A73-B7AA-507134EFE6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPL" sheetId="1" r:id="rId1"/>
@@ -28954,7 +28954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1A4CAE-46F6-484C-9005-4AE6087D9211}">
   <dimension ref="A1:D8589"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -102715,7 +102717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334C7E80-2D7E-4DF5-9BE4-B53895AEDECC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/MAPPING/3. mapping.xlsx
+++ b/MAPPING/3. mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaiyaphonp\งาน\port\MAPPING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B78B0-7B61-4A73-B7AA-507134EFE6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B205D6DD-DB0B-4A0B-9E98-7C84E3589C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPL" sheetId="1" r:id="rId1"/>
@@ -28954,7 +28954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1A4CAE-46F6-484C-9005-4AE6087D9211}">
   <dimension ref="A1:D8589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -102717,8 +102717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334C7E80-2D7E-4DF5-9BE4-B53895AEDECC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
